--- a/18회차_실습체크리스트_이재성.xlsx
+++ b/18회차_실습체크리스트_이재성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fullstack\java\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC1BE57-DF8D-4FD8-A9AF-0D1AA9E08C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587D9440-B9A0-40F9-A930-3BB400DCA074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="780" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>단원</t>
   </si>
@@ -356,12 +356,16 @@
     <t>이름 : 이재성</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>과제</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +482,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -642,7 +655,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,6 +731,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -752,7 +768,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -760,7 +776,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3597,10 +3613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A17"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3611,7 +3627,7 @@
     <col min="5" max="6" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.399999999999999">
+    <row r="1" spans="1:8" ht="20.399999999999999">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3621,7 +3637,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
@@ -3631,7 +3647,7 @@
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:6" ht="27" customHeight="1">
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>51</v>
       </c>
@@ -3643,7 +3659,7 @@
       </c>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3663,7 +3679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21.6">
+    <row r="5" spans="1:8" ht="21.6">
       <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
@@ -3679,7 +3695,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
@@ -3693,7 +3709,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -3706,8 +3722,11 @@
       <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="H7" s="25" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>12</v>
@@ -3721,7 +3740,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" s="20"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
@@ -3735,7 +3754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>14</v>
@@ -3749,7 +3768,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>15</v>
@@ -3762,8 +3781,11 @@
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="H11" s="25" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
         <v>16</v>
@@ -3777,7 +3799,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>17</v>
@@ -3791,7 +3813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>18</v>
@@ -3805,7 +3827,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15" s="20"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
@@ -3819,7 +3841,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>20</v>

--- a/18회차_실습체크리스트_이재성.xlsx
+++ b/18회차_실습체크리스트_이재성.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fullstack\java\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587D9440-B9A0-40F9-A930-3BB400DCA074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82C1DBD-8E16-4D52-9687-B79885564DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>단원</t>
   </si>
@@ -358,6 +358,10 @@
   </si>
   <si>
     <t>과제</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인필요</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -683,6 +687,9 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -730,9 +737,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,7 +788,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3616,7 +3620,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3628,36 +3632,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.399999999999999">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="19" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
@@ -3680,7 +3684,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="21.6">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3696,7 +3700,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
@@ -3710,7 +3714,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
@@ -3722,12 +3726,10 @@
       <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>52</v>
-      </c>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
@@ -3739,9 +3741,12 @@
       <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
@@ -3755,7 +3760,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
@@ -3769,7 +3774,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
@@ -3781,12 +3786,12 @@
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
@@ -3800,7 +3805,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
@@ -3814,7 +3819,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
@@ -3828,7 +3833,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
@@ -3842,7 +3847,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
@@ -3856,7 +3861,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
@@ -3870,52 +3875,52 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/18회차_실습체크리스트_이재성.xlsx
+++ b/18회차_실습체크리스트_이재성.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fullstack\java\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82C1DBD-8E16-4D52-9687-B79885564DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A8676F-259A-4715-9EB5-90B550A7A4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,7 +840,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3619,8 +3619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>

--- a/18회차_실습체크리스트_이재성.xlsx
+++ b/18회차_실습체크리스트_이재성.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fullstack\java\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A8676F-259A-4715-9EB5-90B550A7A4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38405ABE-9741-40E0-B036-FD7163FAE5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -796,7 +796,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -808,7 +808,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3620,7 +3620,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>

--- a/18회차_실습체크리스트_이재성.xlsx
+++ b/18회차_실습체크리스트_이재성.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fullstack\java\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38405ABE-9741-40E0-B036-FD7163FAE5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06679877-41C1-46E6-ADB7-20AF53B21E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>단원</t>
   </si>
@@ -354,14 +354,6 @@
   </si>
   <si>
     <t>이름 : 이재성</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>과제</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인필요</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -824,7 +816,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3620,7 +3612,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3741,9 +3733,6 @@
       <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="21"/>
@@ -3786,9 +3775,7 @@
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="21"/>

--- a/18회차_실습체크리스트_이재성.xlsx
+++ b/18회차_실습체크리스트_이재성.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fullstack\java\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06679877-41C1-46E6-ADB7-20AF53B21E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AC9645-E23C-4700-9028-F210B607E94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,9 +221,6 @@
     <t>08 멀티스레드</t>
   </si>
   <si>
-    <t>09 제너릭, 컬렉션</t>
-  </si>
-  <si>
     <t>10 컬렉션</t>
   </si>
   <si>
@@ -354,6 +351,10 @@
   </si>
   <si>
     <t>이름 : 이재성</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>09 제너릭, 컬렉션</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -824,7 +825,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
@@ -844,7 +845,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3612,7 +3613,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3645,7 +3646,7 @@
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -3677,7 +3678,7 @@
     </row>
     <row r="5" spans="1:8" ht="21.6">
       <c r="A5" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -3685,10 +3686,10 @@
       <c r="C5" s="8"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3699,10 +3700,10 @@
       <c r="C6" s="8"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3713,10 +3714,10 @@
       <c r="C7" s="8"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="9"/>
     </row>
@@ -3728,10 +3729,10 @@
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3742,10 +3743,10 @@
       <c r="C9" s="8"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3756,10 +3757,10 @@
       <c r="C10" s="8"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3770,10 +3771,10 @@
       <c r="C11" s="8"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="9"/>
     </row>
@@ -3785,80 +3786,80 @@
       <c r="C12" s="8"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="21"/>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="21"/>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="21"/>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="21"/>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3881,7 +3882,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -3901,7 +3902,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>

--- a/18회차_실습체크리스트_이재성.xlsx
+++ b/18회차_실습체크리스트_이재성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fullstack\java\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AC9645-E23C-4700-9028-F210B607E94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADA8B9B-E7F9-4111-A201-127BFE881674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -853,7 +853,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3612,7 +3612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/18회차_실습체크리스트_이재성.xlsx
+++ b/18회차_실습체크리스트_이재성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fullstack\java\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADA8B9B-E7F9-4111-A201-127BFE881674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52B83B9-543F-46EE-AE5A-221DECE9D640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -861,7 +861,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3612,8 +3612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
